--- a/R_Challenge.xlsx
+++ b/R_Challenge.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cart" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -141,6 +142,135 @@
   </si>
   <si>
     <t xml:space="preserve">0.0252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds To Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessions Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessions % Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactions Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactions % Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QTY % Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart % Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21</t>
   </si>
 </sst>
 </file>
@@ -1230,4 +1360,558 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="15.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="15.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="15.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="15.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="15.71" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>41091</v>
+      </c>
+      <c r="B2" t="n">
+        <v>768589</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18161</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31804</v>
+      </c>
+      <c r="E2" t="n">
+        <v>191504</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>41122</v>
+      </c>
+      <c r="B3" t="n">
+        <v>822493</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19279</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34648</v>
+      </c>
+      <c r="E3" t="n">
+        <v>217666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>53904</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2844</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26162</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>41153</v>
+      </c>
+      <c r="B4" t="n">
+        <v>662653</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15658</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28426</v>
+      </c>
+      <c r="E4" t="n">
+        <v>123726</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-159840</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-3621</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-6222</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-93940</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>41183</v>
+      </c>
+      <c r="B5" t="n">
+        <v>648639</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14275</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26626</v>
+      </c>
+      <c r="E5" t="n">
+        <v>139803</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-14014</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1383</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16077</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>41214</v>
+      </c>
+      <c r="B6" t="n">
+        <v>637780</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15527</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28132</v>
+      </c>
+      <c r="E6" t="n">
+        <v>186572</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-10859</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1252</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1506</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46769</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>41244</v>
+      </c>
+      <c r="B7" t="n">
+        <v>789634</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19929</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34752</v>
+      </c>
+      <c r="E7" t="n">
+        <v>168972</v>
+      </c>
+      <c r="F7" t="n">
+        <v>151854</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4402</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6620</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-17600</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>41275</v>
+      </c>
+      <c r="B8" t="n">
+        <v>899992</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21560</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38846</v>
+      </c>
+      <c r="E8" t="n">
+        <v>147619</v>
+      </c>
+      <c r="F8" t="n">
+        <v>110358</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1631</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4094</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-21353</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>41306</v>
+      </c>
+      <c r="B9" t="n">
+        <v>550227</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14166</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27048</v>
+      </c>
+      <c r="E9" t="n">
+        <v>135882</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-349765</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-7394</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-11798</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-11737</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>41334</v>
+      </c>
+      <c r="B10" t="n">
+        <v>788820</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17804</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32082</v>
+      </c>
+      <c r="E10" t="n">
+        <v>109797</v>
+      </c>
+      <c r="F10" t="n">
+        <v>238593</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3638</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5034</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-26085</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>41365</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1296613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30369</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54946</v>
+      </c>
+      <c r="E11" t="n">
+        <v>183842</v>
+      </c>
+      <c r="F11" t="n">
+        <v>507793</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12565</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22864</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="n">
+        <v>74045</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1164639</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28389</v>
+      </c>
+      <c r="D12" t="n">
+        <v>51629</v>
+      </c>
+      <c r="E12" t="n">
+        <v>136720</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-131974</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1980</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3317</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-47122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>41426</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1388834</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34538</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61891</v>
+      </c>
+      <c r="E13" t="n">
+        <v>107970</v>
+      </c>
+      <c r="F13" t="n">
+        <v>224195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6149</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10262</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-28750</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/R_Challenge.xlsx
+++ b/R_Challenge.xlsx
@@ -144,7 +144,7 @@
     <t xml:space="preserve">0.0252</t>
   </si>
   <si>
-    <t xml:space="preserve">Adds To Cart</t>
+    <t xml:space="preserve">Add To Carts</t>
   </si>
   <si>
     <t xml:space="preserve">Sessions Change</t>

--- a/R_Challenge.xlsx
+++ b/R_Challenge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -36,112 +36,10 @@
     <t xml:space="preserve">Desktop</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0319</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0094</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0252</t>
   </si>
   <si>
     <t xml:space="preserve">Add To Carts</t>
@@ -652,8 +550,8 @@
       <c r="E2" t="n">
         <v>18547</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" t="n">
+        <v>0.0319</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +559,7 @@
         <v>41091</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>274443</v>
@@ -672,8 +570,8 @@
       <c r="E3" t="n">
         <v>4557</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3" t="n">
+        <v>0.0094</v>
       </c>
     </row>
     <row r="4">
@@ -681,7 +579,7 @@
         <v>41091</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>158717</v>
@@ -692,8 +590,8 @@
       <c r="E4" t="n">
         <v>8700</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="F4" t="n">
+        <v>0.0308</v>
       </c>
     </row>
     <row r="5">
@@ -712,8 +610,8 @@
       <c r="E5" t="n">
         <v>23316</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="F5" t="n">
+        <v>0.0329</v>
       </c>
     </row>
     <row r="6">
@@ -721,7 +619,7 @@
         <v>41122</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>275556</v>
@@ -732,8 +630,8 @@
       <c r="E6" t="n">
         <v>5572</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="F6" t="n">
+        <v>0.0115</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +639,7 @@
         <v>41122</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>154858</v>
@@ -752,8 +650,8 @@
       <c r="E7" t="n">
         <v>5760</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
+      <c r="F7" t="n">
+        <v>0.0207</v>
       </c>
     </row>
     <row r="8">
@@ -772,8 +670,8 @@
       <c r="E8" t="n">
         <v>16507</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
+      <c r="F8" t="n">
+        <v>0.0326</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +679,7 @@
         <v>41153</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>220689</v>
@@ -792,8 +690,8 @@
       <c r="E9" t="n">
         <v>4050</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
+      <c r="F9" t="n">
+        <v>0.0108</v>
       </c>
     </row>
     <row r="10">
@@ -801,7 +699,7 @@
         <v>41153</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>169193</v>
@@ -812,8 +710,8 @@
       <c r="E10" t="n">
         <v>7869</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
+      <c r="F10" t="n">
+        <v>0.0259</v>
       </c>
     </row>
     <row r="11">
@@ -832,8 +730,8 @@
       <c r="E11" t="n">
         <v>17675</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
+      <c r="F11" t="n">
+        <v>0.031</v>
       </c>
     </row>
     <row r="12">
@@ -841,7 +739,7 @@
         <v>41183</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>238849</v>
@@ -852,8 +750,8 @@
       <c r="E12" t="n">
         <v>4446</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
+      <c r="F12" t="n">
+        <v>0.0101</v>
       </c>
     </row>
     <row r="13">
@@ -861,7 +759,7 @@
         <v>41183</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>107108</v>
@@ -872,8 +770,8 @@
       <c r="E13" t="n">
         <v>4505</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
+      <c r="F13" t="n">
+        <v>0.0232</v>
       </c>
     </row>
     <row r="14">
@@ -892,8 +790,8 @@
       <c r="E14" t="n">
         <v>18778</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" t="n">
+        <v>0.0323</v>
       </c>
     </row>
     <row r="15">
@@ -901,7 +799,7 @@
         <v>41214</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>178828</v>
@@ -912,8 +810,8 @@
       <c r="E15" t="n">
         <v>3407</v>
       </c>
-      <c r="F15" t="s">
-        <v>22</v>
+      <c r="F15" t="n">
+        <v>0.0112</v>
       </c>
     </row>
     <row r="16">
@@ -921,7 +819,7 @@
         <v>41214</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>138235</v>
@@ -932,8 +830,8 @@
       <c r="E16" t="n">
         <v>5947</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
+      <c r="F16" t="n">
+        <v>0.023</v>
       </c>
     </row>
     <row r="17">
@@ -952,8 +850,8 @@
       <c r="E17" t="n">
         <v>19947</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
+      <c r="F17" t="n">
+        <v>0.0375</v>
       </c>
     </row>
     <row r="18">
@@ -961,7 +859,7 @@
         <v>41244</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>234481</v>
@@ -972,8 +870,8 @@
       <c r="E18" t="n">
         <v>5672</v>
       </c>
-      <c r="F18" t="s">
-        <v>25</v>
+      <c r="F18" t="n">
+        <v>0.0135</v>
       </c>
     </row>
     <row r="19">
@@ -981,7 +879,7 @@
         <v>41244</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>245435</v>
@@ -992,8 +890,8 @@
       <c r="E19" t="n">
         <v>9133</v>
       </c>
-      <c r="F19" t="s">
-        <v>26</v>
+      <c r="F19" t="n">
+        <v>0.021</v>
       </c>
     </row>
     <row r="20">
@@ -1012,8 +910,8 @@
       <c r="E20" t="n">
         <v>25424</v>
       </c>
-      <c r="F20" t="s">
-        <v>27</v>
+      <c r="F20" t="n">
+        <v>0.035</v>
       </c>
     </row>
     <row r="21">
@@ -1021,7 +919,7 @@
         <v>41275</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>341668</v>
@@ -1032,8 +930,8 @@
       <c r="E21" t="n">
         <v>7257</v>
       </c>
-      <c r="F21" t="s">
-        <v>28</v>
+      <c r="F21" t="n">
+        <v>0.0128</v>
       </c>
     </row>
     <row r="22">
@@ -1041,7 +939,7 @@
         <v>41275</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>164601</v>
@@ -1052,8 +950,8 @@
       <c r="E22" t="n">
         <v>6165</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
+      <c r="F22" t="n">
+        <v>0.0207</v>
       </c>
     </row>
     <row r="23">
@@ -1072,8 +970,8 @@
       <c r="E23" t="n">
         <v>18437</v>
       </c>
-      <c r="F23" t="s">
-        <v>29</v>
+      <c r="F23" t="n">
+        <v>0.0392</v>
       </c>
     </row>
     <row r="24">
@@ -1081,7 +979,7 @@
         <v>41306</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>194996</v>
@@ -1092,8 +990,8 @@
       <c r="E24" t="n">
         <v>3915</v>
       </c>
-      <c r="F24" t="s">
-        <v>30</v>
+      <c r="F24" t="n">
+        <v>0.0106</v>
       </c>
     </row>
     <row r="25">
@@ -1101,7 +999,7 @@
         <v>41306</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>107599</v>
@@ -1112,8 +1010,8 @@
       <c r="E25" t="n">
         <v>4696</v>
       </c>
-      <c r="F25" t="s">
-        <v>31</v>
+      <c r="F25" t="n">
+        <v>0.0223</v>
       </c>
     </row>
     <row r="26">
@@ -1132,8 +1030,8 @@
       <c r="E26" t="n">
         <v>17362</v>
       </c>
-      <c r="F26" t="s">
-        <v>32</v>
+      <c r="F26" t="n">
+        <v>0.0336</v>
       </c>
     </row>
     <row r="27">
@@ -1141,7 +1039,7 @@
         <v>41334</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
         <v>304832</v>
@@ -1152,8 +1050,8 @@
       <c r="E27" t="n">
         <v>6455</v>
       </c>
-      <c r="F27" t="s">
-        <v>33</v>
+      <c r="F27" t="n">
+        <v>0.012</v>
       </c>
     </row>
     <row r="28">
@@ -1161,7 +1059,7 @@
         <v>41334</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>196151</v>
@@ -1172,8 +1070,8 @@
       <c r="E28" t="n">
         <v>8265</v>
       </c>
-      <c r="F28" t="s">
-        <v>34</v>
+      <c r="F28" t="n">
+        <v>0.0228</v>
       </c>
     </row>
     <row r="29">
@@ -1192,8 +1090,8 @@
       <c r="E29" t="n">
         <v>34200</v>
       </c>
-      <c r="F29" t="s">
-        <v>35</v>
+      <c r="F29" t="n">
+        <v>0.0332</v>
       </c>
     </row>
     <row r="30">
@@ -1201,7 +1099,7 @@
         <v>41365</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
         <v>429864</v>
@@ -1212,8 +1110,8 @@
       <c r="E30" t="n">
         <v>7752</v>
       </c>
-      <c r="F30" t="s">
-        <v>36</v>
+      <c r="F30" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
@@ -1221,7 +1119,7 @@
         <v>41365</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>299239</v>
@@ -1232,8 +1130,8 @@
       <c r="E31" t="n">
         <v>12994</v>
       </c>
-      <c r="F31" t="s">
-        <v>37</v>
+      <c r="F31" t="n">
+        <v>0.0241</v>
       </c>
     </row>
     <row r="32">
@@ -1252,8 +1150,8 @@
       <c r="E32" t="n">
         <v>33208</v>
       </c>
-      <c r="F32" t="s">
-        <v>38</v>
+      <c r="F32" t="n">
+        <v>0.0345</v>
       </c>
     </row>
     <row r="33">
@@ -1261,7 +1159,7 @@
         <v>41395</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>409796</v>
@@ -1272,8 +1170,8 @@
       <c r="E33" t="n">
         <v>9790</v>
       </c>
-      <c r="F33" t="s">
-        <v>39</v>
+      <c r="F33" t="n">
+        <v>0.0132</v>
       </c>
     </row>
     <row r="34">
@@ -1281,7 +1179,7 @@
         <v>41395</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>228513</v>
@@ -1292,8 +1190,8 @@
       <c r="E34" t="n">
         <v>8631</v>
       </c>
-      <c r="F34" t="s">
-        <v>26</v>
+      <c r="F34" t="n">
+        <v>0.021</v>
       </c>
     </row>
     <row r="35">
@@ -1312,8 +1210,8 @@
       <c r="E35" t="n">
         <v>35146</v>
       </c>
-      <c r="F35" t="s">
-        <v>40</v>
+      <c r="F35" t="n">
+        <v>0.0349</v>
       </c>
     </row>
     <row r="36">
@@ -1321,7 +1219,7 @@
         <v>41426</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
         <v>526481</v>
@@ -1332,8 +1230,8 @@
       <c r="E36" t="n">
         <v>13017</v>
       </c>
-      <c r="F36" t="s">
-        <v>41</v>
+      <c r="F36" t="n">
+        <v>0.0141</v>
       </c>
     </row>
     <row r="37">
@@ -1341,7 +1239,7 @@
         <v>41426</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>307413</v>
@@ -1352,8 +1250,8 @@
       <c r="E37" t="n">
         <v>13728</v>
       </c>
-      <c r="F37" t="s">
-        <v>42</v>
+      <c r="F37" t="n">
+        <v>0.0252</v>
       </c>
     </row>
   </sheetData>
@@ -1399,31 +1297,31 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1444,19 +1342,19 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1479,25 +1377,25 @@
         <v>53904</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
         <v>1118</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
         <v>2844</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
         <v>26162</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1520,25 +1418,25 @@
         <v>-159840</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>-3621</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>-6222</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="L4" t="n">
         <v>-93940</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1561,25 +1459,25 @@
         <v>-14014</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
         <v>-1383</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
         <v>-1800</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L5" t="n">
         <v>16077</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1602,25 +1500,25 @@
         <v>-10859</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
         <v>1252</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
         <v>1506</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
         <v>46769</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1643,25 +1541,25 @@
         <v>151854</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
         <v>4402</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
         <v>6620</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
         <v>-17600</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1684,25 +1582,25 @@
         <v>110358</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
         <v>1631</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
         <v>4094</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="L8" t="n">
         <v>-21353</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1725,25 +1623,25 @@
         <v>-349765</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
         <v>-7394</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
         <v>-11798</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="L9" t="n">
         <v>-11737</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1766,25 +1664,25 @@
         <v>238593</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
         <v>3638</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="J10" t="n">
         <v>5034</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="L10" t="n">
         <v>-26085</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1807,25 +1705,25 @@
         <v>507793</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>12565</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J11" t="n">
         <v>22864</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="L11" t="n">
         <v>74045</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1848,25 +1746,25 @@
         <v>-131974</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H12" t="n">
         <v>-1980</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="J12" t="n">
         <v>-3317</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L12" t="n">
         <v>-47122</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1889,25 +1787,25 @@
         <v>224195</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H13" t="n">
         <v>6149</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="J13" t="n">
         <v>10262</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L13" t="n">
         <v>-28750</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
